--- a/resultados/Naive Bayes/predicciones-multinomial.xlsx
+++ b/resultados/Naive Bayes/predicciones-multinomial.xlsx
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.64</v>
+        <v>0.21</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.17</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="C5" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75</v>
+        <v>0.53</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22</v>
+        <v>0.72</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.79</v>
+        <v>0.19</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.57</v>
+        <v>0.18</v>
       </c>
       <c r="C9" t="n">
-        <v>0.25</v>
+        <v>0.63</v>
       </c>
       <c r="D9" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="D10" t="n">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.79</v>
+        <v>0.3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="C12" t="n">
-        <v>0.71</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2</v>
+        <v>0.62</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.68</v>
+        <v>0.12</v>
       </c>
       <c r="C14" t="n">
-        <v>0.16</v>
+        <v>0.75</v>
       </c>
       <c r="D14" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2</v>
+        <v>0.73</v>
       </c>
       <c r="C15" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="D15" t="n">
-        <v>0.59</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C16" t="n">
         <v>0.23</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.53</v>
-      </c>
       <c r="D16" t="n">
-        <v>0.24</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.53</v>
+        <v>0.19</v>
       </c>
       <c r="C17" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="D17" t="n">
-        <v>0.22</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.19</v>
+        <v>0.79</v>
       </c>
       <c r="C18" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.58</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="C19" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="D19" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="C20" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="C21" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="D21" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="C22" t="n">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
       <c r="D22" t="n">
-        <v>0.18</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16</v>
+        <v>0.54</v>
       </c>
       <c r="D23" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24">
@@ -768,10 +768,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.73</v>
+        <v>0.15</v>
       </c>
       <c r="C24" t="n">
-        <v>0.13</v>
+        <v>0.71</v>
       </c>
       <c r="D24" t="n">
         <v>0.14</v>
@@ -782,13 +782,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.17</v>
+        <v>0.79</v>
       </c>
       <c r="C25" t="n">
-        <v>0.58</v>
+        <v>0.1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="C26" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="D26" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="C27" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="D27" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +824,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="C28" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="D28" t="n">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +838,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.68</v>
+        <v>0.12</v>
       </c>
       <c r="C29" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="D29" t="n">
-        <v>0.16</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="C30" t="n">
-        <v>0.27</v>
+        <v>0.54</v>
       </c>
       <c r="D30" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +866,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="C31" t="n">
-        <v>0.21</v>
+        <v>0.75</v>
       </c>
       <c r="D31" t="n">
-        <v>0.59</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="32">
@@ -880,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="C32" t="n">
-        <v>0.11</v>
+        <v>0.7</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +894,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.12</v>
+        <v>0.64</v>
       </c>
       <c r="C33" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="D33" t="n">
-        <v>0.76</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="34">
@@ -908,13 +908,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="C34" t="n">
-        <v>0.16</v>
+        <v>0.72</v>
       </c>
       <c r="D34" t="n">
-        <v>0.68</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.14</v>
+        <v>0.79</v>
       </c>
       <c r="C35" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="36">
@@ -936,13 +936,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="C36" t="n">
-        <v>0.55</v>
+        <v>0.21</v>
       </c>
       <c r="D36" t="n">
-        <v>0.22</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="37">
@@ -950,13 +950,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17</v>
+        <v>0.64</v>
       </c>
       <c r="C37" t="n">
-        <v>0.64</v>
+        <v>0.18</v>
       </c>
       <c r="D37" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="38">
@@ -964,13 +964,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="C38" t="n">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="D38" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="39">
@@ -978,13 +978,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="C39" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="D39" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.22</v>
+        <v>0.7</v>
       </c>
       <c r="C40" t="n">
-        <v>0.55</v>
+        <v>0.16</v>
       </c>
       <c r="D40" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.82</v>
+        <v>0.17</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09</v>
+        <v>0.67</v>
       </c>
       <c r="D41" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="42">
@@ -1020,13 +1020,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.14</v>
+        <v>0.63</v>
       </c>
       <c r="C42" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="43">
@@ -1034,13 +1034,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="C43" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.19</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.66</v>
       </c>
     </row>
     <row r="44">
@@ -1048,13 +1048,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="C44" t="n">
-        <v>0.65</v>
+        <v>0.1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="45">
@@ -1062,13 +1062,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="C45" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="D45" t="n">
-        <v>0.18</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="46">
@@ -1076,13 +1076,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.12</v>
+        <v>0.68</v>
       </c>
       <c r="C46" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="D46" t="n">
-        <v>0.75</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="47">
@@ -1090,13 +1090,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="C47" t="n">
-        <v>0.13</v>
+        <v>0.6</v>
       </c>
       <c r="D47" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="48">
@@ -1104,13 +1104,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.77</v>
+        <v>0.17</v>
       </c>
       <c r="C48" t="n">
-        <v>0.12</v>
+        <v>0.65</v>
       </c>
       <c r="D48" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="49">
@@ -1118,13 +1118,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8</v>
+        <v>0.18</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="50">
@@ -1132,13 +1132,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.74</v>
+        <v>0.23</v>
       </c>
       <c r="C50" t="n">
-        <v>0.13</v>
+        <v>0.55</v>
       </c>
       <c r="D50" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="51">
@@ -1146,13 +1146,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="C51" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="D51" t="n">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="52">
@@ -1160,13 +1160,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="C52" t="n">
-        <v>0.51</v>
+        <v>0.17</v>
       </c>
       <c r="D52" t="n">
-        <v>0.29</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.53</v>
+        <v>0.13</v>
       </c>
       <c r="C53" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="D53" t="n">
-        <v>0.23</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="54">
@@ -1188,13 +1188,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2</v>
+        <v>0.53</v>
       </c>
       <c r="C54" t="n">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="55">
@@ -1202,13 +1202,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="C55" t="n">
         <v>0.13</v>
       </c>
       <c r="D55" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="56">
@@ -1216,13 +1216,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="C56" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="D56" t="n">
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="57">
@@ -1230,13 +1230,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.13</v>
+        <v>0.78</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7</v>
+        <v>0.11</v>
       </c>
       <c r="D57" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="58">
@@ -1244,13 +1244,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7</v>
+        <v>0.14</v>
       </c>
       <c r="C58" t="n">
         <v>0.16</v>
       </c>
       <c r="D58" t="n">
-        <v>0.14</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="59">
@@ -1258,13 +1258,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.78</v>
+        <v>0.1</v>
       </c>
       <c r="C59" t="n">
         <v>0.11</v>
       </c>
       <c r="D59" t="n">
-        <v>0.11</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="60">
@@ -1272,13 +1272,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="D60" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="61">
@@ -1286,13 +1286,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.22</v>
+        <v>0.84</v>
       </c>
       <c r="C61" t="n">
-        <v>0.59</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="62">
@@ -1300,13 +1300,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="C62" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
       <c r="D62" t="n">
-        <v>0.58</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="63">
@@ -1314,13 +1314,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="D63" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="64">
@@ -1328,13 +1328,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.25</v>
+        <v>0.82</v>
       </c>
       <c r="C64" t="n">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="D64" t="n">
-        <v>0.51</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="65">
@@ -1342,13 +1342,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="C65" t="n">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="D65" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="66">
@@ -1356,13 +1356,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6</v>
+        <v>0.13</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="67">
@@ -1370,13 +1370,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D67" t="n">
         <v>0.23</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.24</v>
       </c>
     </row>
     <row r="68">
@@ -1384,13 +1384,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D68" t="n">
         <v>0.18</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.19</v>
       </c>
     </row>
     <row r="69">
@@ -1398,13 +1398,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.79</v>
+        <v>0.17</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1</v>
+        <v>0.64</v>
       </c>
       <c r="D69" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="70">
@@ -1412,13 +1412,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="C70" t="n">
-        <v>0.72</v>
+        <v>0.12</v>
       </c>
       <c r="D70" t="n">
-        <v>0.13</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="71">
@@ -1426,13 +1426,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C71" t="n">
         <v>0.25</v>
       </c>
       <c r="D71" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="72">
@@ -1440,13 +1440,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="C72" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="D72" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="73">
@@ -1454,13 +1454,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="C73" t="n">
-        <v>0.16</v>
+        <v>0.58</v>
       </c>
       <c r="D73" t="n">
-        <v>0.71</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="74">
@@ -1468,13 +1468,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="C74" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="D74" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="75">
@@ -1482,13 +1482,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="C75" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="D75" t="n">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="76">
@@ -1496,13 +1496,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.18</v>
+        <v>0.83</v>
       </c>
       <c r="C76" t="n">
-        <v>0.62</v>
+        <v>0.09</v>
       </c>
       <c r="D76" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="77">
@@ -1510,13 +1510,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="C77" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="78">
@@ -1524,13 +1524,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="C78" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D78" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="79">
@@ -1538,13 +1538,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.2</v>
+        <v>0.74</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="80">
@@ -1552,13 +1552,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="C80" t="n">
-        <v>0.67</v>
+        <v>0.11</v>
       </c>
       <c r="D80" t="n">
-        <v>0.16</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81">
@@ -1566,13 +1566,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="C81" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="D81" t="n">
-        <v>0.75</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="82">
@@ -1580,13 +1580,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="C82" t="n">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="D82" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="83">
@@ -1594,13 +1594,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="C83" t="n">
-        <v>0.68</v>
+        <v>0.16</v>
       </c>
       <c r="D83" t="n">
-        <v>0.16</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="84">
@@ -1608,13 +1608,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="C84" t="n">
-        <v>0.41</v>
+        <v>0.63</v>
       </c>
       <c r="D84" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="85">
@@ -1622,13 +1622,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2</v>
+        <v>0.76</v>
       </c>
       <c r="C85" t="n">
-        <v>0.54</v>
+        <v>0.12</v>
       </c>
       <c r="D85" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="86">
@@ -1636,13 +1636,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.84</v>
+        <v>0.13</v>
       </c>
       <c r="C86" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="87">
@@ -1650,13 +1650,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.83</v>
+        <v>0.39</v>
       </c>
       <c r="C87" t="n">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="88">
@@ -1664,13 +1664,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D88" t="n">
         <v>0.18</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.22</v>
       </c>
     </row>
     <row r="89">
@@ -1678,13 +1678,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.15</v>
+        <v>0.53</v>
       </c>
       <c r="C89" t="n">
-        <v>0.68</v>
+        <v>0.23</v>
       </c>
       <c r="D89" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="90">
@@ -1692,13 +1692,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
       <c r="C90" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="D90" t="n">
-        <v>0.17</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="91">
@@ -1706,13 +1706,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18</v>
+        <v>0.77</v>
       </c>
       <c r="C91" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="D91" t="n">
-        <v>0.64</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
